--- a/prj/src/templates/template_survey_verification_block_def.xlsx
+++ b/prj/src/templates/template_survey_verification_block_def.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1373A1FE-23DC-4F3F-9381-CDDDEE940A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2F541-36BE-4634-97FC-747EF650E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Buffer" sheetId="10" r:id="rId7"/>
     <sheet name="Tag" sheetId="11" r:id="rId8"/>
     <sheet name="FloodGate" sheetId="12" r:id="rId9"/>
-    <sheet name="Legend" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Block_Joint!$A$5:$M$5</definedName>
@@ -33,15 +32,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Survey!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Switch!$A$5:$L$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Tag!$A$5:$L$5</definedName>
-    <definedName name="buffer_tol">Buffer!$B$1</definedName>
-    <definedName name="flood_gate_tol">FloodGate!$B$1</definedName>
-    <definedName name="joint_tol" localSheetId="4">Block_Joint!$B$1</definedName>
-    <definedName name="joint_tol">#REF!</definedName>
-    <definedName name="platform_osp_tol">Platform!$B$2</definedName>
-    <definedName name="platform_tol">Platform!$B$1</definedName>
-    <definedName name="signal_tol">Signal!$B$1</definedName>
-    <definedName name="switch_tol">Switch!$B$1</definedName>
-    <definedName name="tag_tol">Tag!$B$1</definedName>
+    <definedName name="buffer_tolerance">Buffer!$B$1</definedName>
+    <definedName name="flood_gate_tolerance">FloodGate!$B$1</definedName>
+    <definedName name="joint_tolerance">Block_Joint!$B$1</definedName>
+    <definedName name="platform_end_tolerance">Platform!$B$1</definedName>
+    <definedName name="platform_osp_tolerance">Platform!$B$2</definedName>
+    <definedName name="signal_tolerance">Signal!$B$1</definedName>
+    <definedName name="switch_tolerance">Switch!$B$1</definedName>
+    <definedName name="tag_tolerance">Tag!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
   <si>
     <t>Author</t>
   </si>
@@ -88,24 +86,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>The constraint is respected.</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>The constraint is not respected.</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>The constraint is not applicable, therefore no analysis is performed.</t>
   </si>
   <si>
     <t>N°</t>
@@ -248,9 +228,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Signification</t>
-  </si>
-  <si>
     <t>Tolerance on platform ends location:</t>
   </si>
   <si>
@@ -273,9 +250,6 @@
   </si>
   <si>
     <t>A: Sheet "Block_Joint"</t>
-  </si>
-  <si>
-    <t>The name of the survey is different from the one expected by the tool. So line is duplicated with the one generated from the DC_SYS.</t>
   </si>
   <si>
     <t xml:space="preserve">KP Anchor position and comparison with associated objects topographic measures.
@@ -424,9 +398,6 @@
     <t>KP Conversion and platform ends comparison with topographic measures.</t>
   </si>
   <si>
-    <t>Survey_Verification_Tool:</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -437,13 +408,13 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>v2_1</t>
   </si>
   <si>
     <t>Block Def.
 Name</t>
+  </si>
+  <si>
+    <t>Survey_Checking Version:</t>
   </si>
 </sst>
 </file>
@@ -453,19 +424,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -495,19 +459,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -618,7 +569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,12 +579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -787,52 +732,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1057,17 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1158,26 +1053,15 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1190,238 +1074,230 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1433,105 +1309,7 @@
     <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 6 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2425,168 +2203,166 @@
       <selection activeCell="B13" sqref="B13:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="49" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" style="49" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="49"/>
+    <col min="1" max="2" width="16.28515625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="40" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" style="40" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="60" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53"/>
-      <c r="C23" s="43" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="44"/>
+      <c r="C23" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="53"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="45" t="s">
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="53"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="47" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="53"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="53"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="45" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="53"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2595,98 +2371,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Feuil10">
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5546875" style="3"/>
-    <col min="2" max="2" width="121.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NOK">
-      <formula>NOT(ISERROR(SEARCH("NOK",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="KO">
-      <formula>NOT(ISERROR(SEARCH("KO",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",B1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"NOK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2702,328 +2386,328 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="30" style="42" customWidth="1"/>
-    <col min="7" max="7" width="108.109375" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="21"/>
+    <col min="1" max="1" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="30" style="33" customWidth="1"/>
+    <col min="7" max="7" width="108.140625" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66">
+        <v>2</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C3" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" ht="77.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="66">
+        <v>4</v>
+      </c>
+      <c r="B6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="C6" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="66">
         <v>7</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="B10" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C10" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="62"/>
+    </row>
+    <row r="11" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="70"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="63"/>
+    </row>
+    <row r="12" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75">
-        <v>2</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="76"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="D15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="75">
-        <v>4</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="77" t="s">
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="76"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
-        <v>5</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22">
-        <v>6</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="75">
-        <v>7</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="72"/>
-    </row>
-    <row r="12" spans="1:7" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22">
-        <v>8</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
-        <v>9</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22">
-        <v>10</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22">
-        <v>11</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22">
-        <v>12</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22">
-        <v>13</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="30"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -3043,13 +2727,13 @@
     <mergeCell ref="D6:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3085,101 +2769,101 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="84"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -3192,36 +2876,36 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="61" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3242,110 +2926,110 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="84"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -3358,36 +3042,36 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:I1 I2:J2 I4:J1048576">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 J2 J4:J1048576">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J2 I4:J1048576">
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 L2 L4:L1048576">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3407,106 +3091,106 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="84"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
@@ -3520,44 +3204,44 @@
     <mergeCell ref="L4:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 J2:K1048576">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1 K2:K1048576">
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K1048576">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1 M2:M1048576">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3577,101 +3261,101 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="84"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
@@ -3684,36 +3368,36 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3733,101 +3417,101 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="84"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
@@ -3840,36 +3524,36 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3889,101 +3573,101 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="84"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
@@ -3996,36 +3680,36 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4045,101 +3729,101 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="84"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
@@ -4152,36 +3836,36 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/prj/src/templates/template_survey_verification_block_def.xlsx
+++ b/prj/src/templates/template_survey_verification_block_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2F541-36BE-4634-97FC-747EF650E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7E71F-2538-4A36-AC29-B047C35D9FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/prj/src/templates/template_survey_verification_block_def.xlsx
+++ b/prj/src/templates/template_survey_verification_block_def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7E71F-2538-4A36-AC29-B047C35D9FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E95DE8-DED9-47F7-832F-2D7F86AD2687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -1856,23 +1856,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>746984</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>154753</xdr:rowOff>
+      <xdr:colOff>1513915</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>188819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Hitachi_Hitachi_STS_orizz_Project_and_External_Documents_Orizzontale">
+        <xdr:cNvPr id="3" name="Image 2" descr="Hitachi_Hitachi_STS_orizz_Project_and_External_Documents_Orizzontale">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2327E093-F453-4E8B-BD70-4C6A9B1DC1CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,8 +1895,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="320040" y="350520"/>
-          <a:ext cx="4522470" cy="375285"/>
+          <a:off x="1086971" y="605118"/>
+          <a:ext cx="4416238" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2199,7 +2199,7 @@
   </sheetPr>
   <dimension ref="A6:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:F20"/>
     </sheetView>
   </sheetViews>

--- a/prj/src/templates/template_survey_verification_block_def.xlsx
+++ b/prj/src/templates/template_survey_verification_block_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E95DE8-DED9-47F7-832F-2D7F86AD2687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F43DD5-9055-44AA-A949-62BE235C67CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,31 +596,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9999FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,17 +1074,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1182,116 +1173,125 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1836,6 +1836,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBDD7EE"/>
+      <color rgb="FFC6E0B4"/>
+      <color rgb="FFFFE699"/>
+      <color rgb="FFBFBFBF"/>
       <color rgb="FF9999FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFCC66FF"/>
@@ -1934,7 +1938,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1948,7 +1952,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1960,7 +1964,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2205,164 +2209,164 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="40" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" style="40" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="40"/>
+    <col min="1" max="2" width="16.28515625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="37" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="37"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="41"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="44"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="44"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2388,326 +2392,326 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="30" style="33" customWidth="1"/>
-    <col min="7" max="7" width="108.140625" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="30" style="30" customWidth="1"/>
+    <col min="7" max="7" width="108.140625" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
+      <c r="A3" s="59">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="77.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
+      <c r="A6" s="59">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="23" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
+      <c r="A10" s="59">
         <v>7</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -2796,7 +2800,7 @@
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
@@ -2810,60 +2814,60 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="80" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="75"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -2953,7 +2957,7 @@
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
@@ -2976,60 +2980,60 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="80" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="75"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -3119,7 +3123,7 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
@@ -3133,64 +3137,64 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="69" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="83"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
@@ -3288,7 +3292,7 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
@@ -3302,60 +3306,60 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="80" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="75"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
@@ -3444,7 +3448,7 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
@@ -3458,60 +3462,60 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="80" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="75"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
@@ -3600,7 +3604,7 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
@@ -3614,60 +3618,60 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="80" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="75"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
@@ -3756,7 +3760,7 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
@@ -3770,60 +3774,60 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="80" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="75"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000008000000}"/>

--- a/prj/src/templates/template_survey_verification_block_def.xlsx
+++ b/prj/src/templates/template_survey_verification_block_def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F43DD5-9055-44AA-A949-62BE235C67CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D2D774-75C3-493D-8EDE-6CCC020E7D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -1179,6 +1179,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,13 +1269,22 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,36 +1292,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1309,7 +1309,7 @@
     <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 6 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="110">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1410,6 +1410,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
@@ -1427,37 +1452,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1546,6 +1540,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
@@ -1563,37 +1582,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1652,6 +1640,61 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
@@ -1659,11 +1702,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1762,6 +1800,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
@@ -1779,6 +1842,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1790,6 +1863,33 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -1797,6 +1897,339 @@
       <font>
         <color theme="5"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1936,7 +2369,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1976,7 +2409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2011,6 +2444,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2046,9 +2496,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2190,7 +2657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2203,98 +2670,98 @@
   </sheetPr>
   <dimension ref="A6:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="37" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" style="37" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="37"/>
+    <col min="1" max="2" width="16.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="37" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -2302,7 +2769,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="41"/>
       <c r="C23" s="31" t="s">
         <v>0</v>
@@ -2316,7 +2783,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="41"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -2324,7 +2791,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -2332,7 +2799,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -2340,28 +2807,28 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="41"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="41"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="41"/>
     </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="35" t="s">
         <v>86</v>
       </c>
@@ -2390,19 +2857,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="29" customWidth="1"/>
     <col min="6" max="6" width="30" style="30" customWidth="1"/>
-    <col min="7" max="7" width="108.140625" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="9"/>
+    <col min="7" max="7" width="108.109375" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2425,7 +2892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2444,14 +2911,14 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
+    <row r="3" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="68" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -2463,10 +2930,10 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="77.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+    <row r="4" spans="1:7" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="11" t="s">
         <v>79</v>
       </c>
@@ -2476,7 +2943,7 @@
       </c>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2495,17 +2962,17 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="66">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="68" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="21"/>
@@ -2514,18 +2981,18 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+    <row r="7" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="67"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="12"/>
       <c r="F7" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -2544,7 +3011,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2565,39 +3032,39 @@
       </c>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
+    <row r="10" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="66">
         <v>7</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="68" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="11" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="G10" s="62"/>
+    </row>
+    <row r="11" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="70"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="56"/>
-    </row>
-    <row r="12" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="65"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="63"/>
+    </row>
+    <row r="12" spans="1:7" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2618,7 +3085,7 @@
       </c>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -2637,7 +3104,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -2656,7 +3123,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -2675,7 +3142,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -2694,7 +3161,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -2731,13 +3198,13 @@
     <mergeCell ref="D6:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2758,6 +3225,7 @@
     <hyperlink ref="F4" location="Platform!A1" display="A: Sheet &quot;Platform&quot;" xr:uid="{484FCF78-BADC-448A-A37D-AFA47AC86165}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2773,24 +3241,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -2806,68 +3274,68 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -2879,38 +3347,29 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+      <formula>"Not Surveyed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="106" priority="11" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="10" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
-      <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2930,24 +3389,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2963,7 +3422,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -2975,65 +3434,65 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -3045,37 +3504,28 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:I1 I2:J2 I4:J1048576">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
+      <formula>"Not Surveyed"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1 J2 J4:J1048576">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="87" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J2 I4:J1048576">
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1 L2 L4:L1048576">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3095,25 +3545,25 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="58" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="15.88671875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -3129,72 +3579,72 @@
       <c r="L1" s="3"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="83"/>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
@@ -3207,45 +3657,30 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+      <formula>"Not Surveyed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
-      <formula>"Not Surveyed"</formula>
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+      <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J1 J2:K1048576">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
-      <formula>"Not in DC_SYS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J1">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1 K2:K1048576">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K1048576">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1 M2:M1048576">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="8" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3265,24 +3700,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -3298,68 +3733,68 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
@@ -3371,37 +3806,28 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+      <formula>"Not Surveyed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3421,24 +3847,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -3454,68 +3880,68 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
@@ -3527,37 +3953,28 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+      <formula>"Not Surveyed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3577,24 +3994,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -3610,68 +4027,68 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
@@ -3683,37 +4100,28 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+      <formula>"Not Surveyed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3733,24 +4141,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -3766,68 +4174,68 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:L5" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
@@ -3839,37 +4247,28 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:I1 I2:J1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"Not Surveyed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1 J2:J1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>"KO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:J1048576">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>"Not Surveyed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1 L2:L1048576">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/prj/src/templates/template_survey_verification_block_def.xlsx
+++ b/prj/src/templates/template_survey_verification_block_def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naderc\Documents\Python\cbtc_configuration_checking\prj\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D2D774-75C3-493D-8EDE-6CCC020E7D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B832C-3A18-4813-87C3-117861C54B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
     <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 6 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="62">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1339,6 +1339,31 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1359,37 +1384,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1472,6 +1466,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
@@ -1489,37 +1508,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1602,6 +1590,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
@@ -1619,37 +1632,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1732,538 +1714,155 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2674,29 +2273,29 @@
       <selection activeCell="B13" sqref="B13:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.33203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="37" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" style="37" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="37"/>
+    <col min="1" max="2" width="16.28515625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="37" customWidth="1"/>
+    <col min="6" max="7" width="16.28515625" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="37"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
         <v>6</v>
       </c>
@@ -2705,63 +2304,63 @@
       <c r="E13" s="52"/>
       <c r="F13" s="53"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="56"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="56"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="54"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="54"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="54"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="57"/>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
       <c r="F20" s="59"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="41"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
@@ -2769,7 +2368,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="31" t="s">
         <v>0</v>
@@ -2783,7 +2382,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -2791,7 +2390,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -2799,7 +2398,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -2807,28 +2406,28 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="41"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="41"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="41"/>
     </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35" t="s">
         <v>86</v>
       </c>
@@ -2857,19 +2456,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="29" customWidth="1"/>
     <col min="6" max="6" width="30" style="30" customWidth="1"/>
-    <col min="7" max="7" width="108.109375" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="9"/>
+    <col min="7" max="7" width="108.140625" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2892,7 +2491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2911,7 +2510,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66">
         <v>2</v>
       </c>
@@ -2930,7 +2529,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="77.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67"/>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -2943,7 +2542,7 @@
       </c>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2962,7 +2561,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="66">
         <v>4</v>
       </c>
@@ -2981,7 +2580,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67"/>
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
@@ -2992,7 +2591,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -3011,7 +2610,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -3032,7 +2631,7 @@
       </c>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A10" s="66">
         <v>7</v>
       </c>
@@ -3053,7 +2652,7 @@
       </c>
       <c r="G10" s="62"/>
     </row>
-    <row r="11" spans="1:7" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="70"/>
       <c r="B11" s="69"/>
       <c r="C11" s="69"/>
@@ -3064,7 +2663,7 @@
       <c r="F11" s="61"/>
       <c r="G11" s="63"/>
     </row>
-    <row r="12" spans="1:7" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -3085,7 +2684,7 @@
       </c>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -3104,7 +2703,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -3123,7 +2722,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -3142,7 +2741,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -3161,7 +2760,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -3198,13 +2797,13 @@
     <mergeCell ref="D6:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3241,24 +2840,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="2"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -3274,14 +2873,14 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
@@ -3307,7 +2906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
@@ -3348,28 +2947,28 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="106" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>"KO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="10" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
-      <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3389,24 +2988,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="2"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -3422,7 +3021,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -3434,11 +3033,11 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
@@ -3464,7 +3063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
@@ -3505,27 +3104,27 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"Not Surveyed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"KO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
-      <formula>"Not Surveyed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="87" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3545,25 +3144,25 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="58" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="2"/>
+    <col min="13" max="13" width="15.85546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -3579,14 +3178,14 @@
       <c r="L1" s="3"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
@@ -3615,7 +3214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
@@ -3657,30 +3256,28 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3700,24 +3297,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="2"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -3733,14 +3330,14 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
@@ -3766,7 +3363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
@@ -3807,27 +3404,27 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3847,24 +3444,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="2"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -3880,14 +3477,14 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
@@ -3913,7 +3510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
@@ -3954,27 +3551,27 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3994,24 +3591,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="2"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -4027,14 +3624,14 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
@@ -4060,7 +3657,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
@@ -4101,27 +3698,27 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4141,24 +3738,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="2"/>
+    <col min="12" max="12" width="15.85546875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -4174,14 +3771,14 @@
       <c r="K1" s="3"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>41</v>
       </c>
@@ -4207,7 +3804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
@@ -4248,27 +3845,27 @@
     <mergeCell ref="E4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Not Surveyed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Not in DC_SYS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
